--- a/Hemanth Reddy_Address.xlsx
+++ b/Hemanth Reddy_Address.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HEMANTH REDDY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HEMANTH REDDY\Documents\GitHub\AddressManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8BB521-C7C3-4335-A50F-3E2529F7A070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8107E323-2307-4309-96B0-09A862DE09FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{7BABCC38-8EE1-4380-9FAC-497B10EEA105}"/>
   </bookViews>
@@ -92,15 +92,9 @@
     <t>Delete an address</t>
   </si>
   <si>
-    <t>Edit an address</t>
-  </si>
-  <si>
     <t>Delete an address by pressing the delete key</t>
   </si>
   <si>
-    <t>Edit an address by pressing the edit key</t>
-  </si>
-  <si>
     <t>Test case passed</t>
   </si>
   <si>
@@ -116,15 +110,6 @@
     <t>Address not deleted from database</t>
   </si>
   <si>
-    <t>Press edit key</t>
-  </si>
-  <si>
-    <t>Edit form is displayed succesfully.</t>
-  </si>
-  <si>
-    <t>Edit form not displayed succesfully.</t>
-  </si>
-  <si>
     <t>Display all address available in database</t>
   </si>
   <si>
@@ -153,6 +138,21 @@
   </si>
   <si>
     <t>Address not added  succesfully to the database</t>
+  </si>
+  <si>
+    <t>Display all address by id</t>
+  </si>
+  <si>
+    <t>When customer press find by id,it should display the associated record.</t>
+  </si>
+  <si>
+    <t>Press find by id</t>
+  </si>
+  <si>
+    <t>Displayed the record.</t>
+  </si>
+  <si>
+    <t>Not Displayed the record.</t>
   </si>
 </sst>
 </file>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113E06A9-B17E-4E1B-B194-CFE996AEBBAC}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,19 +589,19 @@
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>17</v>
@@ -615,19 +615,19 @@
         <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>17</v>
@@ -644,16 +644,16 @@
         <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
@@ -670,22 +670,22 @@
         <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -693,16 +693,16 @@
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>28</v>
@@ -719,16 +719,16 @@
         <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>29</v>
@@ -745,19 +745,19 @@
         <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>17</v>
@@ -771,19 +771,19 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>17</v>

--- a/Hemanth Reddy_Address.xlsx
+++ b/Hemanth Reddy_Address.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HEMANTH REDDY\Documents\GitHub\AddressManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8107E323-2307-4309-96B0-09A862DE09FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE24CCD-2565-45F7-A17F-F801826B5B65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{7BABCC38-8EE1-4380-9FAC-497B10EEA105}"/>
   </bookViews>
@@ -83,27 +83,18 @@
     <t>TC_08</t>
   </si>
   <si>
-    <t>customer has logged in</t>
-  </si>
-  <si>
     <t>Functional</t>
   </si>
   <si>
     <t>Delete an address</t>
   </si>
   <si>
-    <t>Delete an address by pressing the delete key</t>
-  </si>
-  <si>
     <t>Test case passed</t>
   </si>
   <si>
     <t>Test case failed</t>
   </si>
   <si>
-    <t>Press delete key</t>
-  </si>
-  <si>
     <t>Address was succesfully deleted from database</t>
   </si>
   <si>
@@ -113,12 +104,6 @@
     <t>Display all address available in database</t>
   </si>
   <si>
-    <t>When customer press display all address it should all addresses available in the database</t>
-  </si>
-  <si>
-    <t>Press Display all</t>
-  </si>
-  <si>
     <t>Displayed all the records.</t>
   </si>
   <si>
@@ -128,12 +113,6 @@
     <t>Add an address</t>
   </si>
   <si>
-    <t>Add address by pressing the add address key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Press add key </t>
-  </si>
-  <si>
     <t>Address was succesfully added to database</t>
   </si>
   <si>
@@ -143,16 +122,37 @@
     <t>Display all address by id</t>
   </si>
   <si>
-    <t>When customer press find by id,it should display the associated record.</t>
-  </si>
-  <si>
-    <t>Press find by id</t>
-  </si>
-  <si>
     <t>Displayed the record.</t>
   </si>
   <si>
     <t>Not Displayed the record.</t>
+  </si>
+  <si>
+    <t>user has logged in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use addAddress function </t>
+  </si>
+  <si>
+    <t xml:space="preserve">use delete function </t>
+  </si>
+  <si>
+    <t>use Display all function</t>
+  </si>
+  <si>
+    <t>use find by id function</t>
+  </si>
+  <si>
+    <t>Add address by using the addAddress function</t>
+  </si>
+  <si>
+    <t>Delete an address by using the delete function</t>
+  </si>
+  <si>
+    <t>When user use display all address it should display all addresses available in the database</t>
+  </si>
+  <si>
+    <t>When user use find by id,it should display the associated record.</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,25 +586,25 @@
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -612,25 +612,25 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -638,25 +638,25 @@
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -664,25 +664,25 @@
         <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -690,25 +690,25 @@
         <v>12</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -716,25 +716,25 @@
         <v>13</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -742,25 +742,25 @@
         <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,25 +768,25 @@
         <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
